--- a/APIs.xlsx
+++ b/APIs.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A90BF7-B666-48B8-A09E-C6274A15F7CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29085" yWindow="1770" windowWidth="18000" windowHeight="9360" xr2:uid="{F13A7CC0-0526-4734-9AE5-412E66673F8F}"/>
+    <workbookView xWindow="29085" yWindow="1770" windowWidth="18000" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
   <si>
     <t>In Theaters</t>
   </si>
@@ -330,12 +329,44 @@
   <si>
     <t>Project Ideas</t>
   </si>
+  <si>
+    <t>Covid Data</t>
+  </si>
+  <si>
+    <t>https://api.covid19api.com/summary</t>
+  </si>
+  <si>
+    <t>API Key</t>
+  </si>
+  <si>
+    <r>
+      <t>7zpYbhdFxYVFpxEejG0UCPwsq1BxrOroBipK24tJtyETd9YHVT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4D4751"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Secret</t>
+  </si>
+  <si>
+    <t>gei2rngowkPibZKksu7y2EPLWSi7CpMHYucozdEG</t>
+  </si>
+  <si>
+    <t>Pet Finder</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +408,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4D4751"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4D4751"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -399,7 +441,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -411,6 +453,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,7 +494,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{B4591C3A-359C-4855-82BB-99D04DD0BBAB}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -755,14 +806,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64E60B8-28B0-422F-8BA6-D4FA21E4A590}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="78.140625" customWidth="1"/>
@@ -770,7 +821,7 @@
     <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -778,7 +829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -787,7 +838,7 @@
         <v>http://api.myapifilms.com/imdb/inTheaters?token=d54d8e12-964c-48c3-9ac9-cc017ed04f1a&amp;format=json&amp;language=en-us</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -796,7 +847,7 @@
         <v>http://api.myapifilms.com/imdb/idIMDB?token=d54d8e12-964c-48c3-9ac9-cc017ed04f1a&amp;idIMDB=tt1727824&amp;format=json&amp;seasonYear=1&amp;trailers=1&amp;movieTrivia=1&amp;actors=2&amp;actorActress=1&amp;keyword=1&amp;quotes=1&amp;fullSize=1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -805,7 +856,7 @@
         <v>http://api.myapifilms.com/imdb/idIMDB?token=d54d8e12-964c-48c3-9ac9-cc017ed04f1a&amp;idName=nm0001741&amp;filmography=1&amp;bornDied=1&amp;actorActress=1&amp;actorTrivia=1&amp;fullSize=1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -814,22 +865,22 @@
         <v>http://api.myapifilms.com/imdb/idIMDB?token=d54d8e12-964c-48c3-9ac9-cc017ed04f1a&amp;title=Jaws&amp;format=json&amp;language=en-us&amp;filter=2&amp;exactFilter=0&amp;limit=10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15.75">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -837,7 +888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -846,7 +897,7 @@
         <v>http://www.omdbapi.com/?i=tt3896198&amp;plot=full&amp;apikey=ee7971d5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -855,7 +906,7 @@
         <v>http://www.omdbapi.com/?t=Jaws&amp;plot=full&amp;apikey=ee7971d5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -864,7 +915,7 @@
         <v>http://www.omdbapi.com/?st=Jaws&amp;plot=full&amp;apikey=ee7971d5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -872,7 +923,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -880,37 +931,65 @@
         <v>89</v>
       </c>
     </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:E19">
+  <sortState ref="A9:F19">
     <sortCondition ref="D8"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://api.myapifilms.com/imdb/inTheaters?token=d54d8e12-964c-48c3-9ac9-cc017ed04f1a&amp;format=json&amp;language=en-ushttp://api.myapifilms.com/imdb/inTheaters?token=d54d8e12-964c-48c3-9ac9-cc017ed04f1a&amp;format=json&amp;language=en-us" xr:uid="{B082EC63-B573-493A-8CA8-EE0EC70B7F27}"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://api.myapifilms.com/imdb/idIMDB?idIMDB=&quot;&amp;A6&amp;&quot;&amp;token=d54d8e12-964c-48c3-9ac9-cc017ed04f1a&amp;format=json&amp;language=en-us&amp;aka=0&amp;business=0&amp;seasons=0&amp;seasonYear=1&amp;technical=0&amp;trailers=1&amp;movieTrivia=1&amp;awards=0&amp;moviePhotos=0&amp;movieVideos=0&amp;actors=2&amp;biography=0&amp;actorActress=1&amp;similarMovies=0&amp;goofs=1&amp;keyword=1&amp;quotes=1&amp;fullSize=1&amp;companyCredits=0&amp;filmingLocations=2" xr:uid="{5C3EC084-0E9B-4936-B8B1-4A221D5199D9}"/>
-    <hyperlink ref="B4" r:id="rId3" display="http://api.myapifilms.com/imdb/idIMDB?idName=nm0001741&amp;token=d54d8e12-964c-48c3-9ac9-cc017ed04f1a&amp;format=json&amp;language=en-us&amp;filmography=1&amp;bornDied=1&amp;actorActress=1&amp;actorTrivia=1&amp;fullSize=1" xr:uid="{B6399E0D-8314-4601-B0B9-A68262C815B4}"/>
-    <hyperlink ref="B14" r:id="rId4" location="index" display="https://github.com/public-apis/public-apis - index" xr:uid="{C6EC97F1-D353-47C1-B19C-99D56699D66C}"/>
-    <hyperlink ref="B15" r:id="rId5" xr:uid="{9BD60B9C-6770-43C8-A5C3-169752F95A14}"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://api.myapifilms.com/imdb/inTheaters?token=d54d8e12-964c-48c3-9ac9-cc017ed04f1a&amp;format=json&amp;language=en-ushttp://api.myapifilms.com/imdb/inTheaters?token=d54d8e12-964c-48c3-9ac9-cc017ed04f1a&amp;format=json&amp;language=en-us"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://api.myapifilms.com/imdb/idIMDB?idIMDB=&quot;&amp;A6&amp;&quot;&amp;token=d54d8e12-964c-48c3-9ac9-cc017ed04f1a&amp;format=json&amp;language=en-us&amp;aka=0&amp;business=0&amp;seasons=0&amp;seasonYear=1&amp;technical=0&amp;trailers=1&amp;movieTrivia=1&amp;awards=0&amp;moviePhotos=0&amp;movieVideos=0&amp;actors=2&amp;biography=0&amp;actorActress=1&amp;similarMovies=0&amp;goofs=1&amp;keyword=1&amp;quotes=1&amp;fullSize=1&amp;companyCredits=0&amp;filmingLocations=2"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://api.myapifilms.com/imdb/idIMDB?idName=nm0001741&amp;token=d54d8e12-964c-48c3-9ac9-cc017ed04f1a&amp;format=json&amp;language=en-us&amp;filmography=1&amp;bornDied=1&amp;actorActress=1&amp;actorTrivia=1&amp;fullSize=1"/>
+    <hyperlink ref="B14" r:id="rId4" location="index" display="https://github.com/public-apis/public-apis - index"/>
+    <hyperlink ref="B15" r:id="rId5"/>
+    <hyperlink ref="B16" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA3661B-7073-4E98-AEA7-599A8192B086}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="67.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>85</v>
       </c>
@@ -918,7 +997,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="18">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -926,7 +1005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -934,7 +1013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -942,7 +1021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -950,7 +1029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -958,7 +1037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -966,7 +1045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -974,7 +1053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -982,7 +1061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -990,7 +1069,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -998,7 +1077,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1006,7 +1085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1014,7 +1093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1022,7 +1101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="18">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1030,7 +1109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1038,7 +1117,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1046,7 +1125,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1054,7 +1133,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1062,7 +1141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1070,7 +1149,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1078,7 +1157,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1086,7 +1165,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1094,7 +1173,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1102,7 +1181,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1110,7 +1189,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1118,7 +1197,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1126,7 +1205,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1134,7 +1213,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1142,7 +1221,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1150,7 +1229,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1158,7 +1237,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1166,7 +1245,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1174,7 +1253,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="18">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1182,7 +1261,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1190,7 +1269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1198,7 +1277,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1206,7 +1285,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1214,7 +1293,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1222,7 +1301,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1230,7 +1309,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1238,7 +1317,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1246,7 +1325,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -1254,7 +1333,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1262,7 +1341,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -1270,7 +1349,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -1278,7 +1357,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -1286,7 +1365,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -1294,7 +1373,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -1302,7 +1381,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -1310,7 +1389,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -1318,7 +1397,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -1326,7 +1405,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -1334,7 +1413,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -1342,7 +1421,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -1350,7 +1429,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -1358,7 +1437,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -1366,7 +1445,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -1374,7 +1453,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -1382,7 +1461,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -1390,7 +1469,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -1398,7 +1477,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -1406,7 +1485,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -1414,7 +1493,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -1422,7 +1501,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -1430,7 +1509,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -1438,7 +1517,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -1446,7 +1525,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -1454,7 +1533,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="24.75">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -1462,7 +1541,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -1470,7 +1549,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -1478,7 +1557,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -1486,7 +1565,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -1494,7 +1573,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -1502,11 +1581,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="24.75">
       <c r="B75" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B76">
+  <sortState ref="A2:B76">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
